--- a/Sample.hunan.implementation/src/proj/rule/rule_template.xlsx
+++ b/Sample.hunan.implementation/src/proj/rule/rule_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tmp\dmn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC13B54-4AA0-4785-B2D3-A0A8F9E0E8FB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB162A4-F955-409F-BEA5-E9CE34B8FF9A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18640" windowHeight="6240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
   <si>
     <t>input1</t>
   </si>
@@ -74,6 +74,51 @@
   </si>
   <si>
     <t>Rule</t>
+  </si>
+  <si>
+    <t>L1-input1</t>
+  </si>
+  <si>
+    <t>L1-input2</t>
+  </si>
+  <si>
+    <t>L1-input3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Level-1</t>
+  </si>
+  <si>
+    <t>a1</t>
+  </si>
+  <si>
+    <t>b1</t>
+  </si>
+  <si>
+    <t>c1</t>
+  </si>
+  <si>
+    <t>a2</t>
+  </si>
+  <si>
+    <t>b2</t>
+  </si>
+  <si>
+    <t>a3</t>
+  </si>
+  <si>
+    <t>b4</t>
+  </si>
+  <si>
+    <t>ar</t>
+  </si>
+  <si>
+    <t>br</t>
+  </si>
+  <si>
+    <t>cr</t>
   </si>
 </sst>
 </file>
@@ -97,7 +142,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -122,6 +167,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -135,11 +186,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -149,6 +197,14 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,144 +485,245 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{711AAB70-9577-4065-B5D7-38EC39EF83DB}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5" t="s">
+      <c r="E1" s="1"/>
+      <c r="F1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6" t="s">
+      <c r="G1" s="2"/>
+      <c r="H1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="H2" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="I2" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="J2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:G1"/>
+  <mergeCells count="19">
+    <mergeCell ref="E9:E14"/>
+    <mergeCell ref="E3:E8"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="A3:A14"/>
+    <mergeCell ref="B3:B14"/>
+    <mergeCell ref="C3:C14"/>
+    <mergeCell ref="D3:D8"/>
+    <mergeCell ref="D9:D14"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
